--- a/input/ctc_simulation_input.xlsx
+++ b/input/ctc_simulation_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/Repos/Espacios-Abiertos/eitc-tableau/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7C7840-0FF2-7F47-A5CF-3598B7F93148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF8E7B-1C95-BE4A-BD2C-5CC1B508EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="3820" windowWidth="25640" windowHeight="14440" xr2:uid="{573245BF-6264-264E-99EC-9E1ADC160B55}"/>
+    <workbookView xWindow="1680" yWindow="3820" windowWidth="25640" windowHeight="14440" xr2:uid="{573245BF-6264-264E-99EC-9E1ADC160B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="222">
   <si>
     <t>Municipio</t>
   </si>
@@ -698,245 +698,20 @@
     <t>Under 18Y</t>
   </si>
   <si>
-    <t>3,254</t>
-  </si>
-  <si>
-    <t>6,094</t>
-  </si>
-  <si>
-    <t>9,473</t>
-  </si>
-  <si>
-    <t>4,141</t>
-  </si>
-  <si>
-    <t>4,185</t>
-  </si>
-  <si>
-    <t>4,125</t>
-  </si>
-  <si>
-    <t>14,679</t>
-  </si>
-  <si>
-    <t>3,059</t>
-  </si>
-  <si>
-    <t>4,026</t>
-  </si>
-  <si>
-    <t>5,848</t>
-  </si>
-  <si>
-    <t>29,908</t>
-  </si>
-  <si>
-    <t>7,571</t>
-  </si>
-  <si>
-    <t>21,430</t>
-  </si>
-  <si>
-    <t>5,384</t>
-  </si>
-  <si>
-    <t>7,687</t>
-  </si>
-  <si>
-    <t>25,240</t>
-  </si>
-  <si>
-    <t>4,115</t>
-  </si>
-  <si>
-    <t>6,909</t>
-  </si>
-  <si>
-    <t>1,750</t>
-  </si>
-  <si>
-    <t>3,002</t>
-  </si>
-  <si>
-    <t>7,168</t>
-  </si>
-  <si>
-    <t>6,095</t>
-  </si>
-  <si>
-    <t>3,404</t>
-  </si>
-  <si>
-    <t>6,524</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>6,803</t>
-  </si>
-  <si>
-    <t>5,686</t>
-  </si>
-  <si>
-    <t>2,132</t>
-  </si>
-  <si>
-    <t>2,361</t>
-  </si>
-  <si>
-    <t>6,453</t>
-  </si>
-  <si>
-    <t>3,238</t>
-  </si>
-  <si>
-    <t>13,261</t>
-  </si>
-  <si>
-    <t>7,271</t>
-  </si>
-  <si>
-    <t>6,236</t>
-  </si>
-  <si>
-    <t>2,265</t>
-  </si>
-  <si>
-    <t>8,382</t>
-  </si>
-  <si>
-    <t>7,005</t>
-  </si>
-  <si>
-    <t>2,941</t>
-  </si>
-  <si>
-    <t>8,878</t>
-  </si>
-  <si>
-    <t>7,039</t>
-  </si>
-  <si>
-    <t>3,741</t>
-  </si>
-  <si>
-    <t>4,720</t>
-  </si>
-  <si>
-    <t>1,672</t>
-  </si>
-  <si>
-    <t>6,247</t>
-  </si>
-  <si>
-    <t>4,311</t>
-  </si>
-  <si>
-    <t>2,999</t>
-  </si>
-  <si>
-    <t>6,970</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>1,789</t>
-  </si>
-  <si>
-    <t>11,608</t>
-  </si>
-  <si>
-    <t>6,716</t>
-  </si>
-  <si>
-    <t>5,324</t>
-  </si>
-  <si>
-    <t>4,618</t>
-  </si>
-  <si>
-    <t>5,259</t>
-  </si>
-  <si>
-    <t>4,132</t>
-  </si>
-  <si>
-    <t>2,625</t>
-  </si>
-  <si>
-    <t>4,117</t>
-  </si>
-  <si>
-    <t>24,724</t>
-  </si>
-  <si>
-    <t>4,100</t>
-  </si>
-  <si>
-    <t>2,249</t>
-  </si>
-  <si>
-    <t>7,878</t>
-  </si>
-  <si>
-    <t>3,974</t>
-  </si>
-  <si>
-    <t>4,874</t>
-  </si>
-  <si>
-    <t>5,434</t>
-  </si>
-  <si>
-    <t>55,249</t>
-  </si>
-  <si>
-    <t>6,360</t>
-  </si>
-  <si>
-    <t>6,753</t>
-  </si>
-  <si>
-    <t>3,916</t>
-  </si>
-  <si>
-    <t>12,015</t>
-  </si>
-  <si>
-    <t>12,850</t>
-  </si>
-  <si>
-    <t>11,637</t>
-  </si>
-  <si>
-    <t>4,889</t>
-  </si>
-  <si>
-    <t>6,630</t>
-  </si>
-  <si>
-    <t>9,283</t>
-  </si>
-  <si>
-    <t>1,474</t>
-  </si>
-  <si>
-    <t>4,196</t>
-  </si>
-  <si>
-    <t>5,099</t>
-  </si>
-  <si>
-    <t>5,767</t>
+    <t>Under 16Y</t>
+  </si>
+  <si>
+    <t>Under 17Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -956,6 +731,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -978,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -990,6 +771,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3625D7-95F4-0C46-A8E8-32379028E01A}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1123,7 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1136,14 @@
       <c r="D1" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,11 +1153,17 @@
       <c r="C2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="6">
+        <v>3277</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2861</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1374,11 +1173,17 @@
       <c r="C3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="6">
+        <v>6159</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5241</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,11 +1193,17 @@
       <c r="C4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="6">
+        <v>9511</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8208</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1402,11 +1213,17 @@
       <c r="C5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="6">
+        <v>4166</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3542</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1416,11 +1233,17 @@
       <c r="C6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="6">
+        <v>4185</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3503</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,11 +1253,17 @@
       <c r="C7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="6">
+        <v>4166</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3431</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1444,11 +1273,17 @@
       <c r="C8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="6">
+        <v>14721</v>
+      </c>
+      <c r="E8" s="7">
+        <v>12490</v>
+      </c>
+      <c r="F8" s="6">
+        <v>13503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,11 +1293,17 @@
       <c r="C9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="6">
+        <v>3059</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2619</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1472,11 +1313,17 @@
       <c r="C10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="6">
+        <v>4026</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3547</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,11 +1333,17 @@
       <c r="C11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="6">
+        <v>5934</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5156</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1500,11 +1353,17 @@
       <c r="C12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="6">
+        <v>30190</v>
+      </c>
+      <c r="E12" s="7">
+        <v>26018</v>
+      </c>
+      <c r="F12" s="6">
+        <v>28577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1514,11 +1373,17 @@
       <c r="C13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="6">
+        <v>7629</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6374</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,11 +1393,17 @@
       <c r="C14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="6">
+        <v>21673</v>
+      </c>
+      <c r="E14" s="7">
+        <v>18437</v>
+      </c>
+      <c r="F14" s="6">
+        <v>19678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,11 +1413,17 @@
       <c r="C15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="6">
+        <v>5507</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4701</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1556,11 +1433,17 @@
       <c r="C16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="6">
+        <v>7836</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6989</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1570,11 +1453,17 @@
       <c r="C17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="6">
+        <v>25480</v>
+      </c>
+      <c r="E17" s="7">
+        <v>21870</v>
+      </c>
+      <c r="F17" s="6">
+        <v>23283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1584,11 +1473,17 @@
       <c r="C18" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="6">
+        <v>4150</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3617</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1598,11 +1493,17 @@
       <c r="C19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="6">
+        <v>6909</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5793</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1612,11 +1513,17 @@
       <c r="C20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="6">
+        <v>1812</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1658</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1626,11 +1533,17 @@
       <c r="C21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="6">
+        <v>3047</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2686</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1640,11 +1553,17 @@
       <c r="C22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="6">
+        <v>7225</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6246</v>
+      </c>
+      <c r="F22" s="6">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1654,11 +1573,17 @@
       <c r="C23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="6">
+        <v>6172</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5377</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1668,11 +1593,17 @@
       <c r="C24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="6">
+        <v>3404</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3062</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,11 +1613,17 @@
       <c r="C25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="6">
+        <v>6583</v>
+      </c>
+      <c r="E25" s="7">
+        <v>5727</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1696,11 +1633,17 @@
       <c r="C26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" s="6">
+        <v>206</v>
+      </c>
+      <c r="E26" s="7">
+        <v>173</v>
+      </c>
+      <c r="F26" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1710,11 +1653,17 @@
       <c r="C27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="6">
+        <v>6809</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5722</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1724,11 +1673,17 @@
       <c r="C28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="6">
+        <v>5706</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5064</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1738,11 +1693,17 @@
       <c r="C29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="6">
+        <v>2132</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1752,11 +1713,17 @@
       <c r="C30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="6">
+        <v>2498</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2298</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1766,11 +1733,17 @@
       <c r="C31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="6">
+        <v>6537</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5695</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1780,11 +1753,17 @@
       <c r="C32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="6">
+        <v>3263</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2941</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1794,11 +1773,17 @@
       <c r="C33" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="6">
+        <v>13323</v>
+      </c>
+      <c r="E33" s="7">
+        <v>11297</v>
+      </c>
+      <c r="F33" s="6">
+        <v>13054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1808,11 +1793,17 @@
       <c r="C34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="6">
+        <v>7290</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6351</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1822,11 +1813,17 @@
       <c r="C35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="6">
+        <v>6274</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5427</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1836,11 +1833,17 @@
       <c r="C36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="6">
+        <v>2284</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1913</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1850,11 +1853,17 @@
       <c r="C37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="6">
+        <v>8530</v>
+      </c>
+      <c r="E37" s="7">
+        <v>7372</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1864,11 +1873,17 @@
       <c r="C38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="6">
+        <v>7121</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6016</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,11 +1893,17 @@
       <c r="C39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="6">
+        <v>2941</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2671</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1892,11 +1913,17 @@
       <c r="C40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="6">
+        <v>8959</v>
+      </c>
+      <c r="E40" s="7">
+        <v>7548</v>
+      </c>
+      <c r="F40" s="6">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1906,11 +1933,17 @@
       <c r="C41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="6">
+        <v>7039</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6199</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1920,11 +1953,17 @@
       <c r="C42" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="6">
+        <v>3741</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3215</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1934,11 +1973,17 @@
       <c r="C43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D43" s="6">
+        <v>4773</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4083</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1948,11 +1993,17 @@
       <c r="C44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="6">
+        <v>1672</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1425</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1962,11 +2013,17 @@
       <c r="C45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="6">
+        <v>6247</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5376</v>
+      </c>
+      <c r="F45" s="6">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1976,11 +2033,17 @@
       <c r="C46" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D46" s="6">
+        <v>4344</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3725</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1990,11 +2053,17 @@
       <c r="C47" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="6">
+        <v>3025</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2481</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2004,11 +2073,17 @@
       <c r="C48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="6">
+        <v>6970</v>
+      </c>
+      <c r="E48" s="7">
+        <v>6053</v>
+      </c>
+      <c r="F48" s="6">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2018,11 +2093,17 @@
       <c r="C49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="6">
+        <v>909</v>
+      </c>
+      <c r="E49" s="7">
+        <v>806</v>
+      </c>
+      <c r="F49" s="6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2032,11 +2113,17 @@
       <c r="C50" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="6">
+        <v>1789</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1486</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2046,11 +2133,17 @@
       <c r="C51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="6">
+        <v>11631</v>
+      </c>
+      <c r="E51" s="7">
+        <v>9820</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2060,11 +2153,17 @@
       <c r="C52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D52" s="6">
+        <v>6765</v>
+      </c>
+      <c r="E52" s="7">
+        <v>5750</v>
+      </c>
+      <c r="F52" s="6">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2074,11 +2173,17 @@
       <c r="C53" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D53" s="6">
+        <v>5350</v>
+      </c>
+      <c r="E53" s="7">
+        <v>4695</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2088,11 +2193,17 @@
       <c r="C54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <v>4645</v>
+      </c>
+      <c r="E54" s="7">
+        <v>3991</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2102,11 +2213,17 @@
       <c r="C55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D55" s="6">
+        <v>5285</v>
+      </c>
+      <c r="E55" s="7">
+        <v>4529</v>
+      </c>
+      <c r="F55" s="6">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2116,11 +2233,17 @@
       <c r="C56" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D56" s="6">
+        <v>4132</v>
+      </c>
+      <c r="E56" s="7">
+        <v>3515</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2130,11 +2253,17 @@
       <c r="C57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D57" s="6">
+        <v>2625</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2270</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2144,11 +2273,17 @@
       <c r="C58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D58" s="6">
+        <v>4141</v>
+      </c>
+      <c r="E58" s="7">
+        <v>3546</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,11 +2293,17 @@
       <c r="C59" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D59" s="6">
+        <v>24816</v>
+      </c>
+      <c r="E59" s="7">
+        <v>21529</v>
+      </c>
+      <c r="F59" s="6">
+        <v>22039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2172,11 +2313,17 @@
       <c r="C60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D60" s="6">
+        <v>4141</v>
+      </c>
+      <c r="E60" s="7">
+        <v>3626</v>
+      </c>
+      <c r="F60" s="6">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2186,11 +2333,17 @@
       <c r="C61" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="6">
+        <v>2267</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2002</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2200,11 +2353,17 @@
       <c r="C62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D62" s="6">
+        <v>7878</v>
+      </c>
+      <c r="E62" s="7">
+        <v>6644</v>
+      </c>
+      <c r="F62" s="6">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2214,11 +2373,17 @@
       <c r="C63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D63" s="6">
+        <v>4007</v>
+      </c>
+      <c r="E63" s="7">
+        <v>3435</v>
+      </c>
+      <c r="F63" s="6">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2228,11 +2393,17 @@
       <c r="C64" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D64" s="6">
+        <v>4928</v>
+      </c>
+      <c r="E64" s="7">
+        <v>3994</v>
+      </c>
+      <c r="F64" s="6">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2242,11 +2413,17 @@
       <c r="C65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D65" s="6">
+        <v>5477</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4719</v>
+      </c>
+      <c r="F65" s="6">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2256,11 +2433,17 @@
       <c r="C66" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <v>55484</v>
+      </c>
+      <c r="E66" s="7">
+        <v>48355</v>
+      </c>
+      <c r="F66" s="6">
+        <v>50298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -2270,11 +2453,17 @@
       <c r="C67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D67" s="6">
+        <v>6391</v>
+      </c>
+      <c r="E67" s="7">
+        <v>5345</v>
+      </c>
+      <c r="F67" s="6">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2284,11 +2473,17 @@
       <c r="C68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <v>6768</v>
+      </c>
+      <c r="E68" s="7">
+        <v>5767</v>
+      </c>
+      <c r="F68" s="6">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -2298,11 +2493,17 @@
       <c r="C69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <v>3916</v>
+      </c>
+      <c r="E69" s="7">
+        <v>3182</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2312,11 +2513,17 @@
       <c r="C70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D70" s="6">
+        <v>12039</v>
+      </c>
+      <c r="E70" s="7">
+        <v>10169</v>
+      </c>
+      <c r="F70" s="6">
+        <v>11540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -2326,11 +2533,17 @@
       <c r="C71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D71" s="6">
+        <v>12968</v>
+      </c>
+      <c r="E71" s="7">
+        <v>11069</v>
+      </c>
+      <c r="F71" s="6">
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2340,11 +2553,17 @@
       <c r="C72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <v>11637</v>
+      </c>
+      <c r="E72" s="7">
+        <v>9811</v>
+      </c>
+      <c r="F72" s="6">
+        <v>10896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -2354,11 +2573,17 @@
       <c r="C73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D73" s="6">
+        <v>4928</v>
+      </c>
+      <c r="E73" s="7">
+        <v>4199</v>
+      </c>
+      <c r="F73" s="6">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2368,11 +2593,17 @@
       <c r="C74" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D74" s="6">
+        <v>6678</v>
+      </c>
+      <c r="E74" s="7">
+        <v>5620</v>
+      </c>
+      <c r="F74" s="6">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -2382,11 +2613,17 @@
       <c r="C75" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <v>9459</v>
+      </c>
+      <c r="E75" s="7">
+        <v>8213</v>
+      </c>
+      <c r="F75" s="6">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -2396,11 +2633,17 @@
       <c r="C76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <v>1474</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1287</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -2410,11 +2653,17 @@
       <c r="C77" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D77" s="6">
+        <v>4277</v>
+      </c>
+      <c r="E77" s="7">
+        <v>3758</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -2424,11 +2673,17 @@
       <c r="C78" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D78" s="6">
+        <v>5099</v>
+      </c>
+      <c r="E78" s="7">
+        <v>4380</v>
+      </c>
+      <c r="F78" s="6">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -2438,8 +2693,14 @@
       <c r="C79" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>297</v>
+      <c r="D79" s="6">
+        <v>5767</v>
+      </c>
+      <c r="E79" s="7">
+        <v>4933</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5065</v>
       </c>
     </row>
   </sheetData>
